--- a/学情反馈解决方案/data.xlsx
+++ b/学情反馈解决方案/data.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -579,8 +580,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -602,7 +603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,30 +616,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -660,62 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -732,9 +693,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,8 +714,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,13 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,19 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,25 +840,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,25 +906,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,49 +936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,18 +974,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -994,7 +984,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,21 +1039,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,172 +1060,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3419,6 +3420,2793 @@
           </cell>
           <cell r="I82" t="str">
             <v>130 </v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>真实姓名</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>昵称</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>用户提交时间</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>所属班级</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>调班调课</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>批改老师</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>第1题</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>第2题</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>第3题</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>第4题</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>sum</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>崔菁菁</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>颖颖</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>2020-01-17 21:18:17</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>25</v>
+          </cell>
+          <cell r="K2">
+            <v>25</v>
+          </cell>
+          <cell r="L2">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>董子涵</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>bignamey7</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>2020-01-17 18:04:32</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H3">
+            <v>25</v>
+          </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>25</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>张雪婷</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>159****6838</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>2020-01-17 18:37:14</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>25</v>
+          </cell>
+          <cell r="J4">
+            <v>25</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+          <cell r="L4">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>祁昀玮</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>巧巧</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>2020-01-17 22:37:54</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H5">
+            <v>25</v>
+          </cell>
+          <cell r="I5">
+            <v>25</v>
+          </cell>
+          <cell r="J5">
+            <v>25</v>
+          </cell>
+          <cell r="K5">
+            <v>25</v>
+          </cell>
+          <cell r="L5">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>李宇惠</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>宇惠同学</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>2020-01-17 22:36:14</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H6">
+            <v>25</v>
+          </cell>
+          <cell r="I6">
+            <v>25</v>
+          </cell>
+          <cell r="J6">
+            <v>25</v>
+          </cell>
+          <cell r="K6">
+            <v>25</v>
+          </cell>
+          <cell r="L6">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>尹思源</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>152****4450</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>2020-01-17 18:14:45</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>25</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>陈贵义</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>陈贵义</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>2020-01-17 17:56:21</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H8">
+            <v>25</v>
+          </cell>
+          <cell r="I8">
+            <v>25</v>
+          </cell>
+          <cell r="J8">
+            <v>25</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>汪舒毅</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>汪可一</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>2020-01-17 21:50:31</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>25</v>
+          </cell>
+          <cell r="J9">
+            <v>25</v>
+          </cell>
+          <cell r="K9">
+            <v>25</v>
+          </cell>
+          <cell r="L9">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>杨瑜涵</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Veronica.</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>2020-01-18 10:15:50</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>25</v>
+          </cell>
+          <cell r="J10">
+            <v>25</v>
+          </cell>
+          <cell r="K10">
+            <v>25</v>
+          </cell>
+          <cell r="L10">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>张琰</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>丫头</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>2020-01-17 20:54:16</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>25</v>
+          </cell>
+          <cell r="J11">
+            <v>25</v>
+          </cell>
+          <cell r="K11">
+            <v>25</v>
+          </cell>
+          <cell r="L11">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>孙红梅</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>小鱼仙馆</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>2020-01-18 09:35:03</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H12">
+            <v>25</v>
+          </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
+          <cell r="J12">
+            <v>25</v>
+          </cell>
+          <cell r="K12">
+            <v>25</v>
+          </cell>
+          <cell r="L12">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>翟海洋</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>能耐我何</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>2020-01-18 09:10:45</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H13">
+            <v>25</v>
+          </cell>
+          <cell r="I13">
+            <v>25</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="K13">
+            <v>25</v>
+          </cell>
+          <cell r="L13">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>郭淼</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>＊</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>2020-01-17 16:07:46</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>25</v>
+          </cell>
+          <cell r="J14">
+            <v>25</v>
+          </cell>
+          <cell r="K14">
+            <v>25</v>
+          </cell>
+          <cell r="L14">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>邢瑛</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>邢瑛</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>2020-01-17 16:13:18</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>25</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>25</v>
+          </cell>
+          <cell r="L15">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>张紫红</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>我想睡觉</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>2020-01-17 15:55:40</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>25</v>
+          </cell>
+          <cell r="J16">
+            <v>25</v>
+          </cell>
+          <cell r="K16">
+            <v>25</v>
+          </cell>
+          <cell r="L16">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>凌潇楠</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>城市Dodge</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L17">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>宋天宇</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>136****7661</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L18">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>黄路文</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>189****6033</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J19" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L19">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>刘雨</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>°物是人非</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J20" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L20">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>沈煜博</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>181****9921</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J21" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L21">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>杰参罗布</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>188****2877</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L22">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>孙华阳</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>shine*</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J23" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K23" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L23">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>张敏</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>锋行天下</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L24">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>武雅楠</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>稳场Girl.🕷</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L25">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>周月婷</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>151****3490</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L26">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>陈钰林</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>月亮</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L27">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>邓鑫钰</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>我才是宝贝.</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="G28" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J28" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L28">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>孟祥睿</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Bone.</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="G29" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L29">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>林嘉勇</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>黄少天</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="G30" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L30">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>李鑫祥</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>李鑫祥</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="G31" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J31" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K31" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L31">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>陈敬宇</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>132****8086</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="G32" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K32" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L32">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>申思雨</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>IYUE*</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J33" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L33">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>闵苗</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>高中物理~苗苗老师</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="G34" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H34" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I34" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J34" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K34" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L34">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>王森</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>mcy</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="G35" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L35">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>梁荃</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>152****8526</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="G36" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L36">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>朱宇</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>拼搏</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="G37" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L37">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>余政暄</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>祖国和我</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38" t="str">
+            <v>8班</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="G38" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L38">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>冯梦瑶</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>无风不起浪</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>2020-01-17 21:17:18</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="G39" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H39">
+            <v>25</v>
+          </cell>
+          <cell r="I39">
+            <v>25</v>
+          </cell>
+          <cell r="J39">
+            <v>25</v>
+          </cell>
+          <cell r="K39">
+            <v>25</v>
+          </cell>
+          <cell r="L39">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>刘博芝</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>陌╰*´`*╯墨</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>2020-01-17 18:33:32</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="G40" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H40">
+            <v>0</v>
+          </cell>
+          <cell r="I40">
+            <v>0</v>
+          </cell>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
+          <cell r="K40">
+            <v>0</v>
+          </cell>
+          <cell r="L40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>蔡雨晴</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>森林</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>2020-01-17 22:48:56</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="G41" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H41">
+            <v>0</v>
+          </cell>
+          <cell r="I41">
+            <v>0</v>
+          </cell>
+          <cell r="J41">
+            <v>25</v>
+          </cell>
+          <cell r="K41">
+            <v>0</v>
+          </cell>
+          <cell r="L41">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>张鹏军</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>186****5158</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>2020-01-17 15:52:44</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="G42" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H42">
+            <v>0</v>
+          </cell>
+          <cell r="I42">
+            <v>25</v>
+          </cell>
+          <cell r="J42">
+            <v>25</v>
+          </cell>
+          <cell r="K42">
+            <v>0</v>
+          </cell>
+          <cell r="L42">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>杨欣娴</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>杨欣娴</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>2020-01-17 18:45:32</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="G43" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H43">
+            <v>25</v>
+          </cell>
+          <cell r="I43">
+            <v>25</v>
+          </cell>
+          <cell r="J43">
+            <v>25</v>
+          </cell>
+          <cell r="K43">
+            <v>25</v>
+          </cell>
+          <cell r="L43">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>邱冰</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>邱冰♡</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>2020-01-17 16:07:35</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H44">
+            <v>25</v>
+          </cell>
+          <cell r="I44">
+            <v>0</v>
+          </cell>
+          <cell r="J44">
+            <v>25</v>
+          </cell>
+          <cell r="K44">
+            <v>0</v>
+          </cell>
+          <cell r="L44">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>陈九洲</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>姜子牙</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>2020-01-18 09:44:11</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H45">
+            <v>25</v>
+          </cell>
+          <cell r="I45">
+            <v>25</v>
+          </cell>
+          <cell r="J45">
+            <v>25</v>
+          </cell>
+          <cell r="K45">
+            <v>25</v>
+          </cell>
+          <cell r="L45">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>孔思佳</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>181****0533</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>2020-01-18 01:10:45</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H46">
+            <v>25</v>
+          </cell>
+          <cell r="I46">
+            <v>25</v>
+          </cell>
+          <cell r="J46">
+            <v>25</v>
+          </cell>
+          <cell r="K46">
+            <v>25</v>
+          </cell>
+          <cell r="L46">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>张宇</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>维维</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>2020-01-17 16:11:43</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H47">
+            <v>25</v>
+          </cell>
+          <cell r="I47">
+            <v>25</v>
+          </cell>
+          <cell r="J47">
+            <v>25</v>
+          </cell>
+          <cell r="K47">
+            <v>25</v>
+          </cell>
+          <cell r="L47">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>高颖</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>颜值主播乔碧萝</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>2020-01-17 22:59:04</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H48">
+            <v>0</v>
+          </cell>
+          <cell r="I48">
+            <v>25</v>
+          </cell>
+          <cell r="J48">
+            <v>25</v>
+          </cell>
+          <cell r="K48">
+            <v>25</v>
+          </cell>
+          <cell r="L48">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>兰欣悦</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>简单</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>2020-01-17 16:01:45</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H49">
+            <v>0</v>
+          </cell>
+          <cell r="I49">
+            <v>25</v>
+          </cell>
+          <cell r="J49">
+            <v>25</v>
+          </cell>
+          <cell r="K49">
+            <v>25</v>
+          </cell>
+          <cell r="L49">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>李秀霞</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>清纾.</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>2020-01-18 07:46:01</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H50">
+            <v>0</v>
+          </cell>
+          <cell r="I50">
+            <v>0</v>
+          </cell>
+          <cell r="J50">
+            <v>0</v>
+          </cell>
+          <cell r="K50">
+            <v>0</v>
+          </cell>
+          <cell r="L50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>袁紫玉</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>幸福在你左右</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>2020-01-17 19:23:59</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H51">
+            <v>25</v>
+          </cell>
+          <cell r="I51">
+            <v>25</v>
+          </cell>
+          <cell r="J51">
+            <v>25</v>
+          </cell>
+          <cell r="K51">
+            <v>25</v>
+          </cell>
+          <cell r="L51">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>海溶哲</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>森林</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>2020-01-18 09:05:30</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H52">
+            <v>0</v>
+          </cell>
+          <cell r="I52">
+            <v>25</v>
+          </cell>
+          <cell r="J52">
+            <v>25</v>
+          </cell>
+          <cell r="K52">
+            <v>25</v>
+          </cell>
+          <cell r="L52">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>景嘉锐</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>平平</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>2020-01-17 16:59:55</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H53">
+            <v>0</v>
+          </cell>
+          <cell r="I53">
+            <v>25</v>
+          </cell>
+          <cell r="J53">
+            <v>0</v>
+          </cell>
+          <cell r="K53">
+            <v>0</v>
+          </cell>
+          <cell r="L53">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>范紫萱</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Vin南南</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>2020-01-17 20:24:28</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H54">
+            <v>25</v>
+          </cell>
+          <cell r="I54">
+            <v>25</v>
+          </cell>
+          <cell r="J54">
+            <v>25</v>
+          </cell>
+          <cell r="K54">
+            <v>25</v>
+          </cell>
+          <cell r="L54">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>张宇轩</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>红辣椒</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>2020-01-17 17:40:45</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H55">
+            <v>25</v>
+          </cell>
+          <cell r="I55">
+            <v>25</v>
+          </cell>
+          <cell r="J55">
+            <v>25</v>
+          </cell>
+          <cell r="K55">
+            <v>25</v>
+          </cell>
+          <cell r="L55">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>车乐</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>得意淡然</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H56" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I56" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J56" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K56" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L56">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>刘宇航</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>星雨·心语</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H57" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I57" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J57" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K57" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L57">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>马苗苗</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>㏒$</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H58" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I58" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J58" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K58" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L58">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>石津铭</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>石津铭</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H59" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I59" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J59" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K59" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L59">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>黄轩</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>黄轩</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I60" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J60" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K60" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L60">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>查格西</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>包烫烫，包汤汤</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I61" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J61" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K61" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L61">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>赵琳</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>雅歌</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H62" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I62" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J62" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K62" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L62">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>刘家欣</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>🐸😄</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H63" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I63" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J63" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K63" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L63">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>李卓蔓</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Hamster😏</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H64" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I64" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J64" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K64" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L64">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>吴琪</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>就很nice啊</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H65" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I65" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J65" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K65" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L65">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>杨婧</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>_4444x_</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H66" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I66" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J66" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K66" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L66">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>郭君仪</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>狼堡你灰哥</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H67" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I67" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J67" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K67" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L67">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>祝鑫鋆</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>小猪存钱罐</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H68" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I68" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J68" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K68" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L68">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>颜乔伊</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>颜乔伊</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H69" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I69" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J69" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K69" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L69">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>刘颖洁</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>lollipop</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H70" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I70" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J70" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K70" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L70">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>章灵</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>章小新</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H71" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I71" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J71" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K71" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L71">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>周晨</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>182****0025</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H72" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I72" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J72" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K72" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L72">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>安润泽</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>诚现</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="G73" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H73" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I73" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J73" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K73" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L73">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>史嘉鑫</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>180****3005</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="G74" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H74" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I74" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J74" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K74" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L74">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>123</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>137****7685</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="E75" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="G75" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H75" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I75" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J75" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K75" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L75">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>车海博</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>133****0626</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="E76" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="G76" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H76" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I76" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J76" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K76" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L76">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>王晓慧</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>鱼柒</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="E77" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="G77" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H77" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I77" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J77" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K77" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L77">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>马俊</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>隐形的翅膀</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="E78" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="G78" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H78" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I78" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J78" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K78" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L78">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>黄颖琦</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>139****2860</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="E79" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="G79" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H79" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I79" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J79" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K79" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L79">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>孙洋</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>132****1831</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="E80" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="G80" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H80" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I80" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J80" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K80" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L80">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>王籽硕</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>上善若水</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="E81" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="G81" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H81" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I81" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J81" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K81" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L81">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>邓宇晴</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>fighting</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="E82" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="G82" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H82" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I82" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J82" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K82" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L82">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>徐红惠</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>159****8520</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="E83" t="str">
+            <v>7班</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="G83" t="str">
+            <v>甘恬</v>
+          </cell>
+          <cell r="H83" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="I83" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="J83" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="K83" t="str">
+            <v>未提交</v>
+          </cell>
+          <cell r="L83">
+            <v>4000</v>
           </cell>
         </row>
       </sheetData>
@@ -3715,7 +6503,7 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="L2" sqref="L2:L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3797,6 +6585,7 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <f>VLOOKUP(B2,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>75</v>
       </c>
       <c r="M2" t="str">
@@ -3836,6 +6625,7 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <f>VLOOKUP(B3,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>50</v>
       </c>
       <c r="M3" t="str">
@@ -3875,6 +6665,7 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <f>VLOOKUP(B4,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>50</v>
       </c>
       <c r="M4" t="str">
@@ -3914,6 +6705,7 @@
         <v>25</v>
       </c>
       <c r="L5">
+        <f>VLOOKUP(B5,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>75</v>
       </c>
       <c r="M5" t="str">
@@ -3953,6 +6745,7 @@
         <v>25</v>
       </c>
       <c r="L6">
+        <f>VLOOKUP(B6,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>50</v>
       </c>
       <c r="M6" t="str">
@@ -3992,6 +6785,7 @@
         <v>25</v>
       </c>
       <c r="L7">
+        <f>VLOOKUP(B7,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>75</v>
       </c>
       <c r="M7" t="str">
@@ -4031,6 +6825,7 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <f>VLOOKUP(B8,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>25</v>
       </c>
       <c r="M8" t="str">
@@ -4067,6 +6862,7 @@
         <v>36</v>
       </c>
       <c r="L9">
+        <f>VLOOKUP(B9,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M9" t="str">
@@ -4103,6 +6899,7 @@
         <v>36</v>
       </c>
       <c r="L10">
+        <f>VLOOKUP(B10,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M10" t="str">
@@ -4139,7 +6936,8 @@
         <v>36</v>
       </c>
       <c r="L11">
-        <v>4000</v>
+        <f>VLOOKUP(B11,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>50</v>
       </c>
       <c r="M11" t="str">
         <f>VLOOKUP(B11,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -4175,7 +6973,8 @@
         <v>36</v>
       </c>
       <c r="L12">
-        <v>4000</v>
+        <f>VLOOKUP(B12,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="M12" t="str">
         <f>VLOOKUP(B12,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -4211,6 +7010,7 @@
         <v>36</v>
       </c>
       <c r="L13">
+        <f>VLOOKUP(B13,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M13" t="str">
@@ -4247,6 +7047,7 @@
         <v>36</v>
       </c>
       <c r="L14">
+        <f>VLOOKUP(B14,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M14" t="str">
@@ -4283,6 +7084,7 @@
         <v>36</v>
       </c>
       <c r="L15">
+        <f>VLOOKUP(B15,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M15" t="str">
@@ -4319,6 +7121,7 @@
         <v>36</v>
       </c>
       <c r="L16">
+        <f>VLOOKUP(B16,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M16" t="str">
@@ -4355,6 +7158,7 @@
         <v>36</v>
       </c>
       <c r="L17">
+        <f>VLOOKUP(B17,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M17" t="str">
@@ -4391,6 +7195,7 @@
         <v>36</v>
       </c>
       <c r="L18">
+        <f>VLOOKUP(B18,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M18" t="str">
@@ -4427,6 +7232,7 @@
         <v>36</v>
       </c>
       <c r="L19">
+        <f>VLOOKUP(B19,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M19" t="str">
@@ -4463,6 +7269,7 @@
         <v>36</v>
       </c>
       <c r="L20">
+        <f>VLOOKUP(B20,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M20" t="str">
@@ -4499,6 +7306,7 @@
         <v>36</v>
       </c>
       <c r="L21">
+        <f>VLOOKUP(B21,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M21" t="str">
@@ -4535,6 +7343,7 @@
         <v>36</v>
       </c>
       <c r="L22">
+        <f>VLOOKUP(B22,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M22" t="str">
@@ -4571,7 +7380,8 @@
         <v>36</v>
       </c>
       <c r="L23">
-        <v>4000</v>
+        <f>VLOOKUP(B23,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="M23" t="str">
         <f>VLOOKUP(B23,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -4607,6 +7417,7 @@
         <v>36</v>
       </c>
       <c r="L24">
+        <f>VLOOKUP(B24,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M24" t="str">
@@ -4643,6 +7454,7 @@
         <v>36</v>
       </c>
       <c r="L25">
+        <f>VLOOKUP(B25,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M25" t="str">
@@ -4679,6 +7491,7 @@
         <v>36</v>
       </c>
       <c r="L26">
+        <f>VLOOKUP(B26,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M26" t="str">
@@ -4715,6 +7528,7 @@
         <v>36</v>
       </c>
       <c r="L27">
+        <f>VLOOKUP(B27,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M27" t="str">
@@ -4751,7 +7565,8 @@
         <v>36</v>
       </c>
       <c r="L28">
-        <v>4000</v>
+        <f>VLOOKUP(B28,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>75</v>
       </c>
       <c r="M28" t="str">
         <f>VLOOKUP(B28,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -4787,6 +7602,7 @@
         <v>36</v>
       </c>
       <c r="L29">
+        <f>VLOOKUP(B29,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M29" t="str">
@@ -4823,6 +7639,7 @@
         <v>36</v>
       </c>
       <c r="L30">
+        <f>VLOOKUP(B30,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M30" t="str">
@@ -4859,7 +7676,8 @@
         <v>36</v>
       </c>
       <c r="L31">
-        <v>4000</v>
+        <f>VLOOKUP(B31,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>75</v>
       </c>
       <c r="M31" t="str">
         <f>VLOOKUP(B31,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -4895,7 +7713,8 @@
         <v>36</v>
       </c>
       <c r="L32">
-        <v>4000</v>
+        <f>VLOOKUP(B32,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>75</v>
       </c>
       <c r="M32" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -4931,6 +7750,7 @@
         <v>36</v>
       </c>
       <c r="L33">
+        <f>VLOOKUP(B33,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M33" t="str">
@@ -4967,7 +7787,8 @@
         <v>36</v>
       </c>
       <c r="L34">
-        <v>4000</v>
+        <f>VLOOKUP(B34,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>75</v>
       </c>
       <c r="M34" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -5003,6 +7824,7 @@
         <v>36</v>
       </c>
       <c r="L35">
+        <f>VLOOKUP(B35,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M35" t="str">
@@ -5039,7 +7861,8 @@
         <v>36</v>
       </c>
       <c r="L36">
-        <v>4000</v>
+        <f>VLOOKUP(B36,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>75</v>
       </c>
       <c r="M36" t="str">
         <f>VLOOKUP(B36,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -5075,6 +7898,7 @@
         <v>36</v>
       </c>
       <c r="L37">
+        <f>VLOOKUP(B37,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M37" t="str">
@@ -5114,6 +7938,7 @@
         <v>0</v>
       </c>
       <c r="L38">
+        <f>VLOOKUP(B38,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M38" t="str">
@@ -5153,6 +7978,7 @@
         <v>25</v>
       </c>
       <c r="L39">
+        <f>VLOOKUP(B39,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>75</v>
       </c>
       <c r="M39" t="str">
@@ -5192,6 +8018,7 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <f>VLOOKUP(B40,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>50</v>
       </c>
       <c r="M40" t="str">
@@ -5231,6 +8058,7 @@
         <v>25</v>
       </c>
       <c r="L41">
+        <f>VLOOKUP(B41,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>100</v>
       </c>
       <c r="M41" t="str">
@@ -5270,6 +8098,7 @@
         <v>0</v>
       </c>
       <c r="L42">
+        <f>VLOOKUP(B42,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>50</v>
       </c>
       <c r="M42" t="str">
@@ -5309,6 +8138,7 @@
         <v>25</v>
       </c>
       <c r="L43">
+        <f>VLOOKUP(B43,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>100</v>
       </c>
       <c r="M43" t="str">
@@ -5348,6 +8178,7 @@
         <v>0</v>
       </c>
       <c r="L44">
+        <f>VLOOKUP(B44,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>25</v>
       </c>
       <c r="M44" t="str">
@@ -5387,6 +8218,7 @@
         <v>25</v>
       </c>
       <c r="L45">
+        <f>VLOOKUP(B45,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>100</v>
       </c>
       <c r="M45" t="str">
@@ -5426,6 +8258,7 @@
         <v>25</v>
       </c>
       <c r="L46">
+        <f>VLOOKUP(B46,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>100</v>
       </c>
       <c r="M46" t="str">
@@ -5462,6 +8295,7 @@
         <v>36</v>
       </c>
       <c r="L47">
+        <f>VLOOKUP(B47,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M47" t="str">
@@ -5498,7 +8332,8 @@
         <v>36</v>
       </c>
       <c r="L48">
-        <v>4000</v>
+        <f>VLOOKUP(B48,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="M48" t="str">
         <f>VLOOKUP(B48,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -5534,6 +8369,7 @@
         <v>36</v>
       </c>
       <c r="L49">
+        <f>VLOOKUP(B49,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M49" t="str">
@@ -5570,6 +8406,7 @@
         <v>36</v>
       </c>
       <c r="L50">
+        <f>VLOOKUP(B50,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M50" t="str">
@@ -5606,6 +8443,7 @@
         <v>36</v>
       </c>
       <c r="L51">
+        <f>VLOOKUP(B51,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M51" t="str">
@@ -5642,6 +8480,7 @@
         <v>36</v>
       </c>
       <c r="L52">
+        <f>VLOOKUP(B52,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M52" t="str">
@@ -5678,6 +8517,7 @@
         <v>36</v>
       </c>
       <c r="L53">
+        <f>VLOOKUP(B53,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M53" t="str">
@@ -5714,6 +8554,7 @@
         <v>36</v>
       </c>
       <c r="L54">
+        <f>VLOOKUP(B54,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M54" t="str">
@@ -5750,6 +8591,7 @@
         <v>36</v>
       </c>
       <c r="L55">
+        <f>VLOOKUP(B55,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M55" t="str">
@@ -5786,7 +8628,8 @@
         <v>36</v>
       </c>
       <c r="L56">
-        <v>4000</v>
+        <f>VLOOKUP(B56,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="M56" t="str">
         <f>VLOOKUP(B56,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -5822,7 +8665,8 @@
         <v>36</v>
       </c>
       <c r="L57">
-        <v>4000</v>
+        <f>VLOOKUP(B57,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="M57" t="str">
         <f>VLOOKUP(B57,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -5858,6 +8702,7 @@
         <v>36</v>
       </c>
       <c r="L58">
+        <f>VLOOKUP(B58,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M58" t="str">
@@ -5894,6 +8739,7 @@
         <v>36</v>
       </c>
       <c r="L59">
+        <f>VLOOKUP(B59,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M59" t="str">
@@ -5930,6 +8776,7 @@
         <v>36</v>
       </c>
       <c r="L60">
+        <f>VLOOKUP(B60,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M60" t="str">
@@ -5966,6 +8813,7 @@
         <v>36</v>
       </c>
       <c r="L61">
+        <f>VLOOKUP(B61,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M61" t="str">
@@ -6002,6 +8850,7 @@
         <v>36</v>
       </c>
       <c r="L62">
+        <f>VLOOKUP(B62,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M62" t="str">
@@ -6038,6 +8887,7 @@
         <v>36</v>
       </c>
       <c r="L63">
+        <f>VLOOKUP(B63,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M63" t="str">
@@ -6074,6 +8924,7 @@
         <v>36</v>
       </c>
       <c r="L64">
+        <f>VLOOKUP(B64,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M64" t="str">
@@ -6110,7 +8961,8 @@
         <v>36</v>
       </c>
       <c r="L65">
-        <v>4000</v>
+        <f>VLOOKUP(B65,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="M65" t="str">
         <f>VLOOKUP(B65,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -6146,6 +8998,7 @@
         <v>36</v>
       </c>
       <c r="L66">
+        <f>VLOOKUP(B66,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M66" t="str">
@@ -6182,6 +9035,7 @@
         <v>36</v>
       </c>
       <c r="L67">
+        <f>VLOOKUP(B67,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M67" t="str">
@@ -6218,6 +9072,7 @@
         <v>36</v>
       </c>
       <c r="L68">
+        <f>VLOOKUP(B68,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M68" t="str">
@@ -6254,6 +9109,7 @@
         <v>36</v>
       </c>
       <c r="L69">
+        <f>VLOOKUP(B69,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M69" t="str">
@@ -6290,6 +9146,7 @@
         <v>36</v>
       </c>
       <c r="L70">
+        <f>VLOOKUP(B70,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M70" t="str">
@@ -6326,7 +9183,8 @@
         <v>36</v>
       </c>
       <c r="L71">
-        <v>4000</v>
+        <f>VLOOKUP(B71,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>75</v>
       </c>
       <c r="M71" t="str">
         <f>VLOOKUP(B71,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -6362,6 +9220,7 @@
         <v>36</v>
       </c>
       <c r="L72">
+        <f>VLOOKUP(B72,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M72" t="str">
@@ -6398,6 +9257,7 @@
         <v>36</v>
       </c>
       <c r="L73">
+        <f>VLOOKUP(B73,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M73" t="str">
@@ -6434,7 +9294,8 @@
         <v>36</v>
       </c>
       <c r="L74">
-        <v>4000</v>
+        <f>VLOOKUP(B74,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M74" t="str">
         <f>VLOOKUP(B74,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -6470,6 +9331,7 @@
         <v>36</v>
       </c>
       <c r="L75">
+        <f>VLOOKUP(B75,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M75" t="str">
@@ -6506,7 +9368,8 @@
         <v>36</v>
       </c>
       <c r="L76">
-        <v>4000</v>
+        <f>VLOOKUP(B76,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>75</v>
       </c>
       <c r="M76" t="str">
         <f>VLOOKUP(B76,[1]Sheet1!$B:$I,8,FALSE)</f>
@@ -6542,6 +9405,7 @@
         <v>36</v>
       </c>
       <c r="L77">
+        <f>VLOOKUP(B77,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M77" t="str">
@@ -6578,6 +9442,7 @@
         <v>36</v>
       </c>
       <c r="L78">
+        <f>VLOOKUP(B78,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M78" t="str">
@@ -6614,6 +9479,7 @@
         <v>36</v>
       </c>
       <c r="L79">
+        <f>VLOOKUP(B79,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M79" t="str">
@@ -6650,6 +9516,7 @@
         <v>36</v>
       </c>
       <c r="L80">
+        <f>VLOOKUP(B80,[2]Sheet1!$B:$L,11,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="M80" t="str">
@@ -6686,7 +9553,8 @@
         <v>36</v>
       </c>
       <c r="L81">
-        <v>4000</v>
+        <f>VLOOKUP(B81,[2]Sheet1!$B:$L,11,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M81" t="str">
         <f>VLOOKUP(B81,[1]Sheet1!$B:$I,8,FALSE)</f>
